--- a/data/pca/factorExposure/factorExposure_2019-03-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-03-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +729,103 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.1243410894314041</v>
+        <v>0.07847775410482886</v>
       </c>
       <c r="C2">
-        <v>-0.00239743520666669</v>
+        <v>0.0362576096033269</v>
       </c>
       <c r="D2">
-        <v>0.05382937365500436</v>
+        <v>0.01325354188682895</v>
       </c>
       <c r="E2">
-        <v>-0.1160855143551559</v>
+        <v>0.04064111953193991</v>
       </c>
       <c r="F2">
-        <v>-0.104665248161225</v>
+        <v>0.1399587201521156</v>
       </c>
       <c r="G2">
-        <v>0.02015969582576989</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.1050894732118683</v>
+      </c>
+      <c r="H2">
+        <v>-0.05705597177604656</v>
+      </c>
+      <c r="I2">
+        <v>0.02686177124653064</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.223723721030472</v>
+        <v>0.1690802019015201</v>
       </c>
       <c r="C3">
-        <v>-0.1190601040891359</v>
+        <v>0.0919373317402146</v>
       </c>
       <c r="D3">
-        <v>-0.02346253581216553</v>
+        <v>-0.03162862568506602</v>
       </c>
       <c r="E3">
-        <v>-0.3281843548439798</v>
+        <v>-0.01352381111525108</v>
       </c>
       <c r="F3">
-        <v>-0.02152455167150387</v>
+        <v>0.3716286577019636</v>
       </c>
       <c r="G3">
-        <v>0.1166870878366935</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.09202775515579434</v>
+      </c>
+      <c r="H3">
+        <v>-0.2814898379683582</v>
+      </c>
+      <c r="I3">
+        <v>0.1840593248157464</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.0968566322889988</v>
+        <v>0.07527478508572027</v>
       </c>
       <c r="C4">
-        <v>-0.03771880145742076</v>
+        <v>0.03841262636942808</v>
       </c>
       <c r="D4">
-        <v>0.03060134974031148</v>
+        <v>-0.02669385425965217</v>
       </c>
       <c r="E4">
-        <v>-0.07452184760606495</v>
+        <v>0.03608959461265725</v>
       </c>
       <c r="F4">
-        <v>-0.03626764000592606</v>
+        <v>0.08176013905610853</v>
       </c>
       <c r="G4">
-        <v>0.03629154650710167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.04761337299444818</v>
+      </c>
+      <c r="H4">
+        <v>-0.02605896816809991</v>
+      </c>
+      <c r="I4">
+        <v>0.03489114907564771</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +845,277 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01774446659023225</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.008616802012217204</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.009197877714485138</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.005074704834697274</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.002194126597040522</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.02133657446086079</v>
+      </c>
+      <c r="H6">
+        <v>-0.0005417746899674305</v>
+      </c>
+      <c r="I6">
+        <v>-0.01194041098216863</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.04103625470768706</v>
+        <v>0.03514871854945415</v>
       </c>
       <c r="C7">
-        <v>-0.009345462722379967</v>
+        <v>0.007671588412557178</v>
       </c>
       <c r="D7">
-        <v>0.03666653323956261</v>
+        <v>-0.03994964691528361</v>
       </c>
       <c r="E7">
-        <v>-0.07263803144672977</v>
+        <v>0.02835269760089178</v>
       </c>
       <c r="F7">
-        <v>0.05368809863331624</v>
+        <v>0.0555454638294271</v>
       </c>
       <c r="G7">
-        <v>-0.001485394532153776</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.006134559041537277</v>
+      </c>
+      <c r="H7">
+        <v>-0.04729255338072003</v>
+      </c>
+      <c r="I7">
+        <v>-0.003155310887311306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.04316373021235981</v>
+        <v>0.03101383527279136</v>
       </c>
       <c r="C8">
-        <v>-0.04738595765954307</v>
+        <v>0.04249652428797646</v>
       </c>
       <c r="D8">
-        <v>0.008186894556737247</v>
+        <v>-0.02766236008880058</v>
       </c>
       <c r="E8">
-        <v>-0.06849598058976207</v>
+        <v>0.01651081762055975</v>
       </c>
       <c r="F8">
-        <v>-0.006621415944147729</v>
+        <v>0.07267685719329893</v>
       </c>
       <c r="G8">
-        <v>0.0174684413344047</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.02300147816860007</v>
+      </c>
+      <c r="H8">
+        <v>-0.04706279871904392</v>
+      </c>
+      <c r="I8">
+        <v>0.03510161826078882</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.08510035851774038</v>
+        <v>0.06256109880367391</v>
       </c>
       <c r="C9">
-        <v>-0.03729149662454782</v>
+        <v>0.0345009632767273</v>
       </c>
       <c r="D9">
-        <v>0.03839989333694532</v>
+        <v>-0.03050931005870462</v>
       </c>
       <c r="E9">
-        <v>-0.05787936024630767</v>
+        <v>0.03252576521080088</v>
       </c>
       <c r="F9">
-        <v>-0.02433569373101222</v>
+        <v>0.0819698698054739</v>
       </c>
       <c r="G9">
-        <v>0.05370718517198909</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04367198789817418</v>
+      </c>
+      <c r="H9">
+        <v>-0.02176179595522102</v>
+      </c>
+      <c r="I9">
+        <v>0.0159248061318423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>6.470925460504152e-05</v>
+        <v>0.02115711423847808</v>
       </c>
       <c r="C10">
-        <v>0.1560820742958791</v>
+        <v>-0.1448012054077013</v>
       </c>
       <c r="D10">
-        <v>-0.01225735061498933</v>
+        <v>0.05724168440943284</v>
       </c>
       <c r="E10">
-        <v>-0.07377385483184649</v>
+        <v>-0.02131901379332309</v>
       </c>
       <c r="F10">
-        <v>-0.01516675711287344</v>
+        <v>0.07152414397045831</v>
       </c>
       <c r="G10">
-        <v>-0.02210369532731931</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.0234764399563915</v>
+      </c>
+      <c r="H10">
+        <v>-0.003647080198149556</v>
+      </c>
+      <c r="I10">
+        <v>0.1091020020886594</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.0569145889994058</v>
+        <v>0.04987035356581553</v>
       </c>
       <c r="C11">
-        <v>-0.009585483694057274</v>
+        <v>0.02706140295018373</v>
       </c>
       <c r="D11">
-        <v>-0.005098734347428711</v>
+        <v>-0.0009809601268315244</v>
       </c>
       <c r="E11">
-        <v>-0.04237755373524109</v>
+        <v>0.006641403385420615</v>
       </c>
       <c r="F11">
-        <v>-0.004531436092779284</v>
+        <v>0.04008780627286212</v>
       </c>
       <c r="G11">
-        <v>-0.01972711687067</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.007313941776179902</v>
+      </c>
+      <c r="H11">
+        <v>-0.002768910777062276</v>
+      </c>
+      <c r="I11">
+        <v>-0.01019788804703004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.04427531215194463</v>
+        <v>0.04689404032190953</v>
       </c>
       <c r="C12">
-        <v>-0.01639610492321267</v>
+        <v>0.02214704436830893</v>
       </c>
       <c r="D12">
-        <v>-0.003302567349691988</v>
+        <v>-0.01090881212188502</v>
       </c>
       <c r="E12">
-        <v>-0.03067052027364143</v>
+        <v>0.009037717332527633</v>
       </c>
       <c r="F12">
-        <v>0.004063550904370759</v>
+        <v>0.01769944604738132</v>
       </c>
       <c r="G12">
-        <v>0.00214622817331622</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.001328329260307007</v>
+      </c>
+      <c r="H12">
+        <v>-0.003184155801119126</v>
+      </c>
+      <c r="I12">
+        <v>-0.01071565698389927</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.06219246408323159</v>
+        <v>0.04322826236436506</v>
       </c>
       <c r="C13">
-        <v>-0.02308384510664789</v>
+        <v>0.02918393217686095</v>
       </c>
       <c r="D13">
-        <v>-0.003418595476920641</v>
+        <v>0.006664490330752742</v>
       </c>
       <c r="E13">
-        <v>-0.1102248334277685</v>
+        <v>0.008610259370545147</v>
       </c>
       <c r="F13">
-        <v>-0.01424404911104581</v>
+        <v>0.1044683557702359</v>
       </c>
       <c r="G13">
-        <v>0.0009363095097067238</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.02132745969037219</v>
+      </c>
+      <c r="H13">
+        <v>-0.04762316450729195</v>
+      </c>
+      <c r="I13">
+        <v>0.01043602330367639</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.03241155149388528</v>
+        <v>0.02771802105181361</v>
       </c>
       <c r="C14">
-        <v>-0.01136182097161865</v>
+        <v>0.01409542443134621</v>
       </c>
       <c r="D14">
-        <v>0.02751143986126957</v>
+        <v>-0.01013717647510003</v>
       </c>
       <c r="E14">
-        <v>-0.02645978217779571</v>
+        <v>0.02482246074197644</v>
       </c>
       <c r="F14">
-        <v>-0.009556740016048629</v>
+        <v>0.04054624709616787</v>
       </c>
       <c r="G14">
-        <v>-0.02874538750798507</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.03054286391883759</v>
+      </c>
+      <c r="H14">
+        <v>-0.0533114745974461</v>
+      </c>
+      <c r="I14">
+        <v>0.009997935887216876</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1135,45 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.04679551468895104</v>
+        <v>0.04483375925518281</v>
       </c>
       <c r="C16">
-        <v>-0.02536726746052523</v>
+        <v>0.03321898297363991</v>
       </c>
       <c r="D16">
-        <v>-0.01026407367249879</v>
+        <v>-0.00925833799473761</v>
       </c>
       <c r="E16">
-        <v>-0.03501564851908905</v>
+        <v>0.002995038884122316</v>
       </c>
       <c r="F16">
-        <v>0.006927223278011966</v>
+        <v>0.03379424089955971</v>
       </c>
       <c r="G16">
-        <v>-0.006192486848743443</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.0054032934952093</v>
+      </c>
+      <c r="H16">
+        <v>-0.009306311236143257</v>
+      </c>
+      <c r="I16">
+        <v>-0.009877886638285451</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1193,16 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1222,103 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.04932787649273716</v>
+        <v>0.04769017868567083</v>
       </c>
       <c r="C19">
-        <v>-0.03578410823871348</v>
+        <v>0.04201241059604076</v>
       </c>
       <c r="D19">
-        <v>-4.671976592348667e-05</v>
+        <v>-0.0125536971141008</v>
       </c>
       <c r="E19">
-        <v>-0.07760483200078369</v>
+        <v>0.01674643788628676</v>
       </c>
       <c r="F19">
-        <v>0.01694854980915913</v>
+        <v>0.08206434654613784</v>
       </c>
       <c r="G19">
-        <v>-0.02409675367357081</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.01079941936491954</v>
+      </c>
+      <c r="H19">
+        <v>-0.08458314590157623</v>
+      </c>
+      <c r="I19">
+        <v>0.03472421314453441</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.03757488170922015</v>
+        <v>0.01913750117694237</v>
       </c>
       <c r="C20">
-        <v>-0.04117628537527005</v>
+        <v>0.02841092361234307</v>
       </c>
       <c r="D20">
-        <v>0.01922023780524656</v>
+        <v>-0.0170137588368666</v>
       </c>
       <c r="E20">
-        <v>-0.06483422878794354</v>
+        <v>0.01893759070624066</v>
       </c>
       <c r="F20">
-        <v>0.01354838249146097</v>
+        <v>0.0667755350111464</v>
       </c>
       <c r="G20">
-        <v>-0.008538937622537171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01386282020599115</v>
+      </c>
+      <c r="H20">
+        <v>-0.07209152169258795</v>
+      </c>
+      <c r="I20">
+        <v>0.01971530742333055</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.03765457058344554</v>
+        <v>0.02471016293521019</v>
       </c>
       <c r="C21">
-        <v>-0.0276119107272818</v>
+        <v>0.02593949551474374</v>
       </c>
       <c r="D21">
-        <v>0.01121853684839731</v>
+        <v>-0.02499542150868872</v>
       </c>
       <c r="E21">
-        <v>-0.09796734305153916</v>
+        <v>0.006845653535954802</v>
       </c>
       <c r="F21">
-        <v>-0.04881917005800588</v>
+        <v>0.07839940637781173</v>
       </c>
       <c r="G21">
-        <v>-0.01150027074565647</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.03567588545910159</v>
+      </c>
+      <c r="H21">
+        <v>-0.02519130017454009</v>
+      </c>
+      <c r="I21">
+        <v>-0.01035791303107087</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1338,16 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1367,335 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.04874106224484599</v>
+        <v>0.04390766071381551</v>
       </c>
       <c r="C24">
-        <v>-0.0172946485519407</v>
+        <v>0.02202400695697509</v>
       </c>
       <c r="D24">
-        <v>-0.0007508199629242073</v>
+        <v>-0.005574722050201733</v>
       </c>
       <c r="E24">
-        <v>-0.04374957768528814</v>
+        <v>0.00817721759178839</v>
       </c>
       <c r="F24">
-        <v>0.005850316273084576</v>
+        <v>0.04036488075591899</v>
       </c>
       <c r="G24">
-        <v>0.001129876506667484</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.003991401437636896</v>
+      </c>
+      <c r="H24">
+        <v>-0.008213954400217596</v>
+      </c>
+      <c r="I24">
+        <v>-0.007696491831545449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.0504542267066064</v>
+        <v>0.04646850090670792</v>
       </c>
       <c r="C25">
-        <v>-0.008621163648641978</v>
+        <v>0.022752620515581</v>
       </c>
       <c r="D25">
-        <v>-0.001490187596233391</v>
+        <v>-0.004635227775294815</v>
       </c>
       <c r="E25">
-        <v>-0.04195114080495971</v>
+        <v>0.007426876916244265</v>
       </c>
       <c r="F25">
-        <v>-0.006552824069955636</v>
+        <v>0.04458061088201837</v>
       </c>
       <c r="G25">
-        <v>-0.009441234027776375</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.004224221142999544</v>
+      </c>
+      <c r="H25">
+        <v>-0.000374367008074781</v>
+      </c>
+      <c r="I25">
+        <v>-0.0106086288254895</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.01629042073949769</v>
+        <v>0.01618368476093711</v>
       </c>
       <c r="C26">
-        <v>-0.0267526105788858</v>
+        <v>0.02500632222563691</v>
       </c>
       <c r="D26">
-        <v>0.003778836596279369</v>
+        <v>-0.004302273792374207</v>
       </c>
       <c r="E26">
-        <v>-0.03391508317373555</v>
+        <v>0.0005067026562103529</v>
       </c>
       <c r="F26">
-        <v>-0.01810145659701367</v>
+        <v>0.04513510801614281</v>
       </c>
       <c r="G26">
-        <v>-0.0230240415084118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.01993540890379066</v>
+      </c>
+      <c r="H26">
+        <v>-0.03235980324285295</v>
+      </c>
+      <c r="I26">
+        <v>-0.003933361270941409</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>-0.115701901548338</v>
+        <v>0.08035295309144035</v>
       </c>
       <c r="C27">
-        <v>-0.03095460826861071</v>
+        <v>0.02937064561283883</v>
       </c>
       <c r="D27">
-        <v>0.03137322722994153</v>
+        <v>-0.01239753999181666</v>
       </c>
       <c r="E27">
-        <v>-0.09685069800181889</v>
+        <v>0.03325944069924231</v>
       </c>
       <c r="F27">
-        <v>-0.008253367912023668</v>
+        <v>0.06915839158155684</v>
       </c>
       <c r="G27">
-        <v>0.006568591209632126</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01714086783132775</v>
+      </c>
+      <c r="H27">
+        <v>-0.01122785853848236</v>
+      </c>
+      <c r="I27">
+        <v>0.0205674269139974</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.004749472408719651</v>
+        <v>0.03927383963827533</v>
       </c>
       <c r="C28">
-        <v>0.2429943799720012</v>
+        <v>-0.223215230581459</v>
       </c>
       <c r="D28">
-        <v>-0.01493139819603649</v>
+        <v>0.07786942250889246</v>
       </c>
       <c r="E28">
-        <v>-0.0469526266729719</v>
+        <v>-0.03492511028079365</v>
       </c>
       <c r="F28">
-        <v>-0.01959282661203468</v>
+        <v>0.05735592065740841</v>
       </c>
       <c r="G28">
-        <v>-0.004943658127308661</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02465829258573298</v>
+      </c>
+      <c r="H28">
+        <v>0.002480840863686628</v>
+      </c>
+      <c r="I28">
+        <v>0.1544461643484564</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.02181106254623833</v>
+        <v>0.02241042181406944</v>
       </c>
       <c r="C29">
-        <v>-0.02028417617703768</v>
+        <v>0.01636870329656517</v>
       </c>
       <c r="D29">
-        <v>0.03329087972642283</v>
+        <v>-0.01603577409854211</v>
       </c>
       <c r="E29">
-        <v>-0.02745113953387319</v>
+        <v>0.02643440344294973</v>
       </c>
       <c r="F29">
-        <v>-0.01518058486310288</v>
+        <v>0.03665066723675723</v>
       </c>
       <c r="G29">
-        <v>-0.02230343961809479</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03161135337820839</v>
+      </c>
+      <c r="H29">
+        <v>-0.04952889733162434</v>
+      </c>
+      <c r="I29">
+        <v>0.003304818834345607</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.1037751781369765</v>
+        <v>0.09288065694134225</v>
       </c>
       <c r="C30">
-        <v>-0.01737228679952804</v>
+        <v>0.05517116814177016</v>
       </c>
       <c r="D30">
-        <v>0.02382522351529132</v>
+        <v>0.02318637048207697</v>
       </c>
       <c r="E30">
-        <v>-0.1107787878284488</v>
+        <v>0.03110571714670258</v>
       </c>
       <c r="F30">
-        <v>-0.0007167638116873029</v>
+        <v>0.1029834310567589</v>
       </c>
       <c r="G30">
-        <v>-0.03405627938128254</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01483907961577933</v>
+      </c>
+      <c r="H30">
+        <v>-0.02013306864816564</v>
+      </c>
+      <c r="I30">
+        <v>-0.01005537808906616</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.06102310672158535</v>
+        <v>0.06258192350098328</v>
       </c>
       <c r="C31">
-        <v>-0.01469753797487481</v>
+        <v>0.02239469607677616</v>
       </c>
       <c r="D31">
-        <v>0.02050937322881021</v>
+        <v>0.005103061627547795</v>
       </c>
       <c r="E31">
-        <v>0.01930831406432801</v>
+        <v>0.0211777064586071</v>
       </c>
       <c r="F31">
-        <v>-0.01105674945003317</v>
+        <v>0.001680597660870182</v>
       </c>
       <c r="G31">
-        <v>-0.05523396707667028</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.04173352541313862</v>
+      </c>
+      <c r="H31">
+        <v>-0.03317347027304092</v>
+      </c>
+      <c r="I31">
+        <v>0.009836720796844041</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.06788768677225528</v>
+        <v>0.04587073711891437</v>
       </c>
       <c r="C32">
-        <v>-0.03390638775656593</v>
+        <v>0.0434911765560246</v>
       </c>
       <c r="D32">
-        <v>0.01391212763750109</v>
+        <v>-0.02982042677171745</v>
       </c>
       <c r="E32">
-        <v>-0.1101677820185021</v>
+        <v>0.02744235068106189</v>
       </c>
       <c r="F32">
-        <v>0.01105425210285456</v>
+        <v>0.08892678781871978</v>
       </c>
       <c r="G32">
-        <v>-0.02102753963516683</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.01470604534708325</v>
+      </c>
+      <c r="H32">
+        <v>-0.04050549213440571</v>
+      </c>
+      <c r="I32">
+        <v>0.02485143474538938</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.06910695371814378</v>
+        <v>0.05894055239237998</v>
       </c>
       <c r="C33">
-        <v>-0.04006358710473615</v>
+        <v>0.05440583162694507</v>
       </c>
       <c r="D33">
-        <v>0.01196041813735212</v>
+        <v>0.002364207582667657</v>
       </c>
       <c r="E33">
-        <v>-0.07198843424455681</v>
+        <v>0.008409927203906039</v>
       </c>
       <c r="F33">
-        <v>-0.04479042214529249</v>
+        <v>0.07814261864091218</v>
       </c>
       <c r="G33">
-        <v>-0.01466443629657487</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.03600918744711964</v>
+      </c>
+      <c r="H33">
+        <v>-0.03824239789914117</v>
+      </c>
+      <c r="I33">
+        <v>-0.01213931642782634</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.04778229037609699</v>
+        <v>0.04656878027778335</v>
       </c>
       <c r="C34">
-        <v>-0.01702590401224828</v>
+        <v>0.02844069153733205</v>
       </c>
       <c r="D34">
-        <v>9.881014757883201e-05</v>
+        <v>-0.0124502211621757</v>
       </c>
       <c r="E34">
-        <v>-0.02603269279553569</v>
+        <v>0.0135987872847492</v>
       </c>
       <c r="F34">
-        <v>0.006051873053581572</v>
+        <v>0.03087408011411223</v>
       </c>
       <c r="G34">
-        <v>-0.008610108405594437</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.0004540344538145757</v>
+      </c>
+      <c r="H34">
+        <v>-0.01209047930874416</v>
+      </c>
+      <c r="I34">
+        <v>-0.009211611849113205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1715,45 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.01355621277114174</v>
+        <v>0.01617774608555861</v>
       </c>
       <c r="C36">
-        <v>0.006572286628285461</v>
+        <v>0.0006255802791787746</v>
       </c>
       <c r="D36">
-        <v>0.009155546792049635</v>
+        <v>-0.00496936284429663</v>
       </c>
       <c r="E36">
-        <v>-0.022805365222818</v>
+        <v>0.00967667972665748</v>
       </c>
       <c r="F36">
-        <v>-0.007146157091202587</v>
+        <v>0.02840053636890507</v>
       </c>
       <c r="G36">
-        <v>-0.01747126921628685</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02316605589643502</v>
+      </c>
+      <c r="H36">
+        <v>-0.02818455773466948</v>
+      </c>
+      <c r="I36">
+        <v>-0.004355981465187457</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1773,219 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.05704211570285681</v>
+        <v>0.03543635976062486</v>
       </c>
       <c r="C38">
-        <v>-0.01329852322463972</v>
+        <v>0.01368725981555731</v>
       </c>
       <c r="D38">
-        <v>0.0269172813016957</v>
+        <v>-0.007435073858813506</v>
       </c>
       <c r="E38">
-        <v>-0.03195012737223207</v>
+        <v>0.01303600403818435</v>
       </c>
       <c r="F38">
-        <v>-0.003033763505923967</v>
+        <v>0.05096981655479055</v>
       </c>
       <c r="G38">
-        <v>0.02636788146831391</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02854898610533933</v>
+      </c>
+      <c r="H38">
+        <v>-0.01329427651463054</v>
+      </c>
+      <c r="I38">
+        <v>-0.0137787581185125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.07337280155131196</v>
+        <v>0.05854018824759392</v>
       </c>
       <c r="C39">
-        <v>-0.01553493382058745</v>
+        <v>0.04031773416926607</v>
       </c>
       <c r="D39">
-        <v>0.005429247638415096</v>
+        <v>-0.006788557965387197</v>
       </c>
       <c r="E39">
-        <v>-0.0439628688445751</v>
+        <v>0.0159131719714916</v>
       </c>
       <c r="F39">
-        <v>-0.01783958321753464</v>
+        <v>0.05597196237572193</v>
       </c>
       <c r="G39">
-        <v>-0.007813217848326236</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.01667958521505196</v>
+      </c>
+      <c r="H39">
+        <v>-0.0003693620648549254</v>
+      </c>
+      <c r="I39">
+        <v>-0.03150332352388259</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.07396314158859214</v>
+        <v>0.05793276991457048</v>
       </c>
       <c r="C40">
-        <v>-0.03840821339557397</v>
+        <v>0.04639795011738385</v>
       </c>
       <c r="D40">
-        <v>0.01275414502265975</v>
+        <v>0.007006058590563694</v>
       </c>
       <c r="E40">
-        <v>-0.1062898656775152</v>
+        <v>0.02261862819028874</v>
       </c>
       <c r="F40">
-        <v>-0.02987266036153177</v>
+        <v>0.09611939374864609</v>
       </c>
       <c r="G40">
-        <v>0.03824594422971007</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.02435830195163657</v>
+      </c>
+      <c r="H40">
+        <v>-0.05344660082883177</v>
+      </c>
+      <c r="I40">
+        <v>0.01197752715478911</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.004579437131053734</v>
+        <v>0.003084991930030792</v>
       </c>
       <c r="C41">
-        <v>-0.01378085099042351</v>
+        <v>0.01007856446210938</v>
       </c>
       <c r="D41">
-        <v>0.02450034544551276</v>
+        <v>-0.004291255229404118</v>
       </c>
       <c r="E41">
-        <v>-0.01374644252893494</v>
+        <v>0.007509570205578929</v>
       </c>
       <c r="F41">
-        <v>-0.03132370950242162</v>
+        <v>0.01490182391980544</v>
       </c>
       <c r="G41">
-        <v>-0.02835850671991674</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.03774385152135203</v>
+      </c>
+      <c r="H41">
+        <v>-0.03311747158647304</v>
+      </c>
+      <c r="I41">
+        <v>0.02156334806407075</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>-0.1413724385737434</v>
+        <v>0.2200642361246691</v>
       </c>
       <c r="C42">
-        <v>-0.1854036996858355</v>
+        <v>0.1848341966392895</v>
       </c>
       <c r="D42">
-        <v>-0.9344944766185826</v>
+        <v>0.005010522828088758</v>
       </c>
       <c r="E42">
-        <v>0.05087054694682062</v>
+        <v>-0.9310701789443971</v>
       </c>
       <c r="F42">
-        <v>0.03320871202665093</v>
+        <v>-0.1438325464808198</v>
       </c>
       <c r="G42">
-        <v>-0.07639358751372119</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.002612008127517439</v>
+      </c>
+      <c r="H42">
+        <v>-0.005053403346461831</v>
+      </c>
+      <c r="I42">
+        <v>0.049105140060843</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.006141682494328651</v>
+        <v>0.005659206171366496</v>
       </c>
       <c r="C43">
-        <v>-0.01765847317109757</v>
+        <v>0.01446356476415251</v>
       </c>
       <c r="D43">
-        <v>0.01869493617258193</v>
+        <v>-0.002962199419263332</v>
       </c>
       <c r="E43">
-        <v>-0.03555130885096121</v>
+        <v>0.008197422193066952</v>
       </c>
       <c r="F43">
-        <v>-0.006337761962842335</v>
+        <v>0.02928736855627563</v>
       </c>
       <c r="G43">
-        <v>-0.02110629025906049</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.02117360226033221</v>
+      </c>
+      <c r="H43">
+        <v>-0.03204544138216888</v>
+      </c>
+      <c r="I43">
+        <v>0.0143414610016312</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.03851578641415406</v>
+        <v>0.02869327722455419</v>
       </c>
       <c r="C44">
-        <v>-0.04562832186366087</v>
+        <v>0.03938254518563195</v>
       </c>
       <c r="D44">
-        <v>0.01596026074281972</v>
+        <v>-0.0149595161373499</v>
       </c>
       <c r="E44">
-        <v>-0.122432671358447</v>
+        <v>0.009349857568509572</v>
       </c>
       <c r="F44">
-        <v>-0.08944547143994759</v>
+        <v>0.1224537598567993</v>
       </c>
       <c r="G44">
-        <v>-0.02955782115375612</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.06425098758123342</v>
+      </c>
+      <c r="H44">
+        <v>-0.1029148508194444</v>
+      </c>
+      <c r="I44">
+        <v>0.02188749069724816</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2005,103 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.02593317890392727</v>
+        <v>0.02546554952581328</v>
       </c>
       <c r="C46">
-        <v>-0.01827541308414417</v>
+        <v>0.03377436240091287</v>
       </c>
       <c r="D46">
-        <v>0.03177859102701685</v>
+        <v>-0.009459363086635347</v>
       </c>
       <c r="E46">
-        <v>-0.02427360811468225</v>
+        <v>0.02698958891667371</v>
       </c>
       <c r="F46">
-        <v>-0.02315770037742365</v>
+        <v>0.04584800874798602</v>
       </c>
       <c r="G46">
-        <v>-0.02891777025493946</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.02665114335907862</v>
+      </c>
+      <c r="H46">
+        <v>-0.05335007831900371</v>
+      </c>
+      <c r="I46">
+        <v>0.000640256374990651</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.08754763727669221</v>
+        <v>0.0918946807527692</v>
       </c>
       <c r="C47">
-        <v>-0.01055165337456792</v>
+        <v>0.01775413989782488</v>
       </c>
       <c r="D47">
-        <v>0.0205555258106265</v>
+        <v>0.001706376599173627</v>
       </c>
       <c r="E47">
-        <v>0.02350346897499546</v>
+        <v>0.02487101789831572</v>
       </c>
       <c r="F47">
-        <v>-0.008349853664372235</v>
+        <v>-0.01178677092859438</v>
       </c>
       <c r="G47">
-        <v>-0.02988722808248782</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.04296832690776545</v>
+      </c>
+      <c r="H47">
+        <v>-0.05728019826117922</v>
+      </c>
+      <c r="I47">
+        <v>0.01527848623817758</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.01837778519059664</v>
+        <v>0.01919441866025984</v>
       </c>
       <c r="C48">
-        <v>-0.02102168928424429</v>
+        <v>0.01960696299466162</v>
       </c>
       <c r="D48">
-        <v>0.01805533982198656</v>
+        <v>-0.008347473632555164</v>
       </c>
       <c r="E48">
-        <v>-0.02730815305065</v>
+        <v>0.01302354411255112</v>
       </c>
       <c r="F48">
-        <v>-0.009329155002323208</v>
+        <v>0.03078403373459883</v>
       </c>
       <c r="G48">
-        <v>-0.00647269979832849</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.01533048225841103</v>
+      </c>
+      <c r="H48">
+        <v>-0.02309297086137398</v>
+      </c>
+      <c r="I48">
+        <v>0.01124742155575278</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2121,74 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.08721116863284413</v>
+        <v>0.08847175118792192</v>
       </c>
       <c r="C50">
-        <v>-0.03733968793139516</v>
+        <v>0.03257395930240443</v>
       </c>
       <c r="D50">
-        <v>0.02764365156343828</v>
+        <v>-0.0208446899795832</v>
       </c>
       <c r="E50">
-        <v>0.0154579546350557</v>
+        <v>0.02269957763332551</v>
       </c>
       <c r="F50">
-        <v>0.001827674799175358</v>
+        <v>-0.004045713239412929</v>
       </c>
       <c r="G50">
-        <v>-0.03632347610209202</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.001642242053358006</v>
+      </c>
+      <c r="H50">
+        <v>-0.0408054621619359</v>
+      </c>
+      <c r="I50">
+        <v>-0.01009577507030569</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.06262663436713156</v>
+        <v>0.04563016455742362</v>
       </c>
       <c r="C51">
-        <v>0.02387406434166454</v>
+        <v>-0.0004505126775668076</v>
       </c>
       <c r="D51">
-        <v>-0.001758791450257043</v>
+        <v>0.01550617428154557</v>
       </c>
       <c r="E51">
-        <v>-0.08395727446354893</v>
+        <v>0.009235538760522369</v>
       </c>
       <c r="F51">
-        <v>-0.04382714484321802</v>
+        <v>0.09317604242494268</v>
       </c>
       <c r="G51">
-        <v>-0.06305168310555903</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.05269857528293668</v>
+      </c>
+      <c r="H51">
+        <v>-0.0566420938290921</v>
+      </c>
+      <c r="I51">
+        <v>0.02892791340988739</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2208,277 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1460143530429601</v>
+        <v>0.127531289660653</v>
       </c>
       <c r="C53">
-        <v>-0.01007495149108049</v>
+        <v>0.03548532191467356</v>
       </c>
       <c r="D53">
-        <v>0.044485728720308</v>
+        <v>-0.002403964258777021</v>
       </c>
       <c r="E53">
-        <v>0.05271965542970596</v>
+        <v>0.04735355311716222</v>
       </c>
       <c r="F53">
-        <v>0.009894756668193953</v>
+        <v>-0.04136733946421019</v>
       </c>
       <c r="G53">
-        <v>-0.03769661667926683</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.02344290075084404</v>
+      </c>
+      <c r="H53">
+        <v>-0.001465862705524829</v>
+      </c>
+      <c r="I53">
+        <v>0.03571612733421045</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.02913780673615192</v>
+        <v>0.02634702293774916</v>
       </c>
       <c r="C54">
-        <v>-0.000557693427203989</v>
+        <v>0.001513738238818265</v>
       </c>
       <c r="D54">
-        <v>0.03661639666812543</v>
+        <v>-0.005370206786596377</v>
       </c>
       <c r="E54">
-        <v>-0.03160428231694887</v>
+        <v>0.02727531867683677</v>
       </c>
       <c r="F54">
-        <v>-0.04785664107215835</v>
+        <v>0.03775719864527258</v>
       </c>
       <c r="G54">
-        <v>-0.01099453109171283</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.05218627805132092</v>
+      </c>
+      <c r="H54">
+        <v>-0.04163329627801486</v>
+      </c>
+      <c r="I54">
+        <v>0.02847942792826731</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1017333545497077</v>
+        <v>0.1017522916178485</v>
       </c>
       <c r="C55">
-        <v>0.001597643746114309</v>
+        <v>0.01767208766460693</v>
       </c>
       <c r="D55">
-        <v>0.03641519348811455</v>
+        <v>-0.01616590261043251</v>
       </c>
       <c r="E55">
-        <v>0.01207060374141395</v>
+        <v>0.03107176098709934</v>
       </c>
       <c r="F55">
-        <v>0.03664499278060841</v>
+        <v>-0.02908389505115551</v>
       </c>
       <c r="G55">
-        <v>0.01066896788812458</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.005831489324340153</v>
+      </c>
+      <c r="H55">
+        <v>-0.01458498364008515</v>
+      </c>
+      <c r="I55">
+        <v>0.01647731981897452</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1802624110230338</v>
+        <v>0.1692178142806607</v>
       </c>
       <c r="C56">
-        <v>0.01231147238969958</v>
+        <v>0.01548989000752694</v>
       </c>
       <c r="D56">
-        <v>0.07614593654939338</v>
+        <v>-0.003916814190929631</v>
       </c>
       <c r="E56">
-        <v>0.09869120735597543</v>
+        <v>0.08374328882469188</v>
       </c>
       <c r="F56">
-        <v>0.08213164577144284</v>
+        <v>-0.08762599380705237</v>
       </c>
       <c r="G56">
-        <v>-0.002135678929747559</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.02792182594462448</v>
+      </c>
+      <c r="H56">
+        <v>0.04016461176547494</v>
+      </c>
+      <c r="I56">
+        <v>0.028757540442406</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>-0.09492790916157423</v>
+        <v>0.07154500894942636</v>
       </c>
       <c r="C57">
-        <v>-0.02902727389817156</v>
+        <v>0.03940773772500112</v>
       </c>
       <c r="D57">
-        <v>0.02651711770585607</v>
+        <v>0.006251393406650682</v>
       </c>
       <c r="E57">
-        <v>-0.04190127374931951</v>
+        <v>0.01281233103861814</v>
       </c>
       <c r="F57">
-        <v>-0.03060231686690369</v>
+        <v>0.06151273095615768</v>
       </c>
       <c r="G57">
-        <v>-0.03626277102273371</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.0251200807136321</v>
+      </c>
+      <c r="H57">
+        <v>-0.02782506503741035</v>
+      </c>
+      <c r="I57">
+        <v>-0.008566689881418838</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.1759382137830416</v>
+        <v>0.2043006159346461</v>
       </c>
       <c r="C58">
-        <v>-0.02227046584695659</v>
+        <v>0.1135346334850737</v>
       </c>
       <c r="D58">
-        <v>-0.0313730243632147</v>
+        <v>0.05842533971639629</v>
       </c>
       <c r="E58">
-        <v>-0.1273739262213126</v>
+        <v>-0.007909050455506232</v>
       </c>
       <c r="F58">
-        <v>0.06440655297398931</v>
+        <v>0.2395495689064295</v>
       </c>
       <c r="G58">
-        <v>-0.02840342159984264</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1627869774449841</v>
+      </c>
+      <c r="H58">
+        <v>-0.3552164133619255</v>
+      </c>
+      <c r="I58">
+        <v>-0.1417841798351005</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.01351944493048585</v>
+        <v>0.03943104506381419</v>
       </c>
       <c r="C59">
-        <v>0.2007607074275084</v>
+        <v>-0.1810010753307766</v>
       </c>
       <c r="D59">
-        <v>0.01254231370462496</v>
+        <v>0.08279187697416351</v>
       </c>
       <c r="E59">
-        <v>-0.06347194812114298</v>
+        <v>0.002145768114606195</v>
       </c>
       <c r="F59">
-        <v>-0.009462795902449861</v>
+        <v>0.0736406450775135</v>
       </c>
       <c r="G59">
-        <v>-0.008913737274548111</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.004198785320049956</v>
+      </c>
+      <c r="H59">
+        <v>0.01919233140602829</v>
+      </c>
+      <c r="I59">
+        <v>0.06065723498406891</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1882135174614069</v>
+        <v>0.1851847108965263</v>
       </c>
       <c r="C60">
-        <v>0.0948606589046237</v>
+        <v>-0.02785523233047878</v>
       </c>
       <c r="D60">
-        <v>0.01267401785055053</v>
+        <v>0.0638172852769584</v>
       </c>
       <c r="E60">
-        <v>-0.188804943104363</v>
+        <v>0.0138304901609816</v>
       </c>
       <c r="F60">
-        <v>-0.0490227479187308</v>
+        <v>0.2044962847785548</v>
       </c>
       <c r="G60">
-        <v>-0.007494567246870221</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.08037375566102549</v>
+      </c>
+      <c r="H60">
+        <v>0.2721243792793139</v>
+      </c>
+      <c r="I60">
+        <v>-0.09359687547197101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.05071800358582002</v>
+        <v>0.04014740610245259</v>
       </c>
       <c r="C61">
-        <v>-0.004003217423035647</v>
+        <v>0.02370181622633707</v>
       </c>
       <c r="D61">
-        <v>-0.001690768699170124</v>
+        <v>-0.008007429156559895</v>
       </c>
       <c r="E61">
-        <v>-0.04036980784584442</v>
+        <v>0.005721716970533346</v>
       </c>
       <c r="F61">
-        <v>-0.005387202701551395</v>
+        <v>0.03904433182907081</v>
       </c>
       <c r="G61">
-        <v>-0.005032896453169014</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.008504804292275452</v>
+      </c>
+      <c r="H61">
+        <v>0.002851350119821127</v>
+      </c>
+      <c r="I61">
+        <v>-0.03515638733459973</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2498,219 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.04773083521670302</v>
+        <v>0.03142518356176693</v>
       </c>
       <c r="C63">
-        <v>-0.004886454990816927</v>
+        <v>0.01799924229742214</v>
       </c>
       <c r="D63">
-        <v>0.02332214138466971</v>
+        <v>-0.004596866661685693</v>
       </c>
       <c r="E63">
-        <v>-0.03518307120756218</v>
+        <v>0.01302484236306307</v>
       </c>
       <c r="F63">
-        <v>-0.002603687897441876</v>
+        <v>0.02863771783058883</v>
       </c>
       <c r="G63">
-        <v>-0.02522451048576741</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01109189247807213</v>
+      </c>
+      <c r="H63">
+        <v>-0.05082155913863438</v>
+      </c>
+      <c r="I63">
+        <v>0.03441702089353704</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.08072986416192858</v>
+        <v>0.05766940652784228</v>
       </c>
       <c r="C64">
-        <v>-0.04898135224867704</v>
+        <v>0.04253875544486962</v>
       </c>
       <c r="D64">
-        <v>0.06455658148595979</v>
+        <v>-0.02870202633661259</v>
       </c>
       <c r="E64">
-        <v>-0.05715291897442225</v>
+        <v>0.0416963124455149</v>
       </c>
       <c r="F64">
-        <v>-0.05701701468576716</v>
+        <v>0.05011284832529433</v>
       </c>
       <c r="G64">
-        <v>0.02431802181923567</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.05537959548149151</v>
+      </c>
+      <c r="H64">
+        <v>0.002862743166506881</v>
+      </c>
+      <c r="I64">
+        <v>0.02961691216661927</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01969311255693488</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.008113138767679507</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.009659944372946982</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.005410542038008245</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.001346785157952992</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.02169512014969018</v>
+      </c>
+      <c r="H65">
+        <v>0.002819671856633092</v>
+      </c>
+      <c r="I65">
+        <v>-0.01369194001373206</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.0921941105885279</v>
+        <v>0.0697053401980129</v>
       </c>
       <c r="C66">
-        <v>-0.02968100424859622</v>
+        <v>0.05605826292789312</v>
       </c>
       <c r="D66">
-        <v>0.03954991127556301</v>
+        <v>-0.003647873564414158</v>
       </c>
       <c r="E66">
-        <v>-0.07834077798748799</v>
+        <v>0.044025721550727</v>
       </c>
       <c r="F66">
-        <v>-0.03962059607676542</v>
+        <v>0.06960452416837284</v>
       </c>
       <c r="G66">
-        <v>-0.01681544091520202</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.01479271053859863</v>
+      </c>
+      <c r="H66">
+        <v>0.000841019605189593</v>
+      </c>
+      <c r="I66">
+        <v>-0.04048574528232835</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.06381684394973453</v>
+        <v>0.0472203045165683</v>
       </c>
       <c r="C67">
-        <v>0.01162509323914244</v>
+        <v>-0.002174665811762344</v>
       </c>
       <c r="D67">
-        <v>0.01315396176939295</v>
+        <v>0.002720585803973948</v>
       </c>
       <c r="E67">
-        <v>-0.02824629913257689</v>
+        <v>0.01100924311287474</v>
       </c>
       <c r="F67">
-        <v>-0.007395267541641916</v>
+        <v>0.03998676670781227</v>
       </c>
       <c r="G67">
-        <v>0.03726206292340897</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.03473447461387897</v>
+      </c>
+      <c r="H67">
+        <v>0.009198732717858074</v>
+      </c>
+      <c r="I67">
+        <v>-0.04066172554646377</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.0154474426248619</v>
+        <v>0.04637660249816943</v>
       </c>
       <c r="C68">
-        <v>0.248407492095556</v>
+        <v>-0.2208083348083799</v>
       </c>
       <c r="D68">
-        <v>-0.003307464763610136</v>
+        <v>0.09326538627045841</v>
       </c>
       <c r="E68">
-        <v>-0.04506560032429043</v>
+        <v>-0.01267882395204121</v>
       </c>
       <c r="F68">
-        <v>-0.002985330024996845</v>
+        <v>0.05607788394892718</v>
       </c>
       <c r="G68">
-        <v>-0.02276486070981575</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.00203796603584369</v>
+      </c>
+      <c r="H68">
+        <v>0.01439409452908293</v>
+      </c>
+      <c r="I68">
+        <v>0.1673466572063123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.0744702624053732</v>
+        <v>0.07310043167977946</v>
       </c>
       <c r="C69">
-        <v>-0.01332527852797466</v>
+        <v>0.02187422026731438</v>
       </c>
       <c r="D69">
-        <v>0.02362157959410882</v>
+        <v>6.673189879148528e-05</v>
       </c>
       <c r="E69">
-        <v>0.02003120230063515</v>
+        <v>0.03060620332578459</v>
       </c>
       <c r="F69">
-        <v>0.001009190600922119</v>
+        <v>-0.002147697269526867</v>
       </c>
       <c r="G69">
-        <v>-0.0295813194881644</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02691489652484367</v>
+      </c>
+      <c r="H69">
+        <v>-0.02739114042440057</v>
+      </c>
+      <c r="I69">
+        <v>-0.005788529154838529</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2730,248 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.01568243131189534</v>
+        <v>0.0521312710966551</v>
       </c>
       <c r="C71">
-        <v>0.2730899532276586</v>
+        <v>-0.2307730852698019</v>
       </c>
       <c r="D71">
-        <v>-0.004899757815889452</v>
+        <v>0.104288924891998</v>
       </c>
       <c r="E71">
-        <v>-0.08517187296135556</v>
+        <v>-0.03099219590629955</v>
       </c>
       <c r="F71">
-        <v>-0.01223008124342334</v>
+        <v>0.08137040910961016</v>
       </c>
       <c r="G71">
-        <v>-0.03400958335405271</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01224601454956356</v>
+      </c>
+      <c r="H71">
+        <v>0.02876136043391323</v>
+      </c>
+      <c r="I71">
+        <v>0.12793163709782</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1173986102710776</v>
+        <v>0.1237290184894605</v>
       </c>
       <c r="C72">
-        <v>0.001898977163297559</v>
+        <v>0.02877119962510108</v>
       </c>
       <c r="D72">
-        <v>0.04061396360810429</v>
+        <v>0.0001082652666392489</v>
       </c>
       <c r="E72">
-        <v>-0.09850600876374216</v>
+        <v>0.0603839460920539</v>
       </c>
       <c r="F72">
-        <v>0.01039844847864177</v>
+        <v>0.08248020766499346</v>
       </c>
       <c r="G72">
-        <v>0.02107579092158007</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.04045710418103868</v>
+      </c>
+      <c r="H72">
+        <v>0.01560402102472535</v>
+      </c>
+      <c r="I72">
+        <v>-0.06421944509621118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.2874467903290657</v>
+        <v>0.2702824995539637</v>
       </c>
       <c r="C73">
-        <v>0.1609557843767987</v>
+        <v>-0.05093905504592317</v>
       </c>
       <c r="D73">
-        <v>-0.03615715176064613</v>
+        <v>0.11962023697661</v>
       </c>
       <c r="E73">
-        <v>-0.3402870216095799</v>
+        <v>-0.02760306718811754</v>
       </c>
       <c r="F73">
-        <v>-0.0391096909028204</v>
+        <v>0.3076196616010232</v>
       </c>
       <c r="G73">
-        <v>0.02550823228653559</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1863835747175239</v>
+      </c>
+      <c r="H73">
+        <v>0.4711889045059847</v>
+      </c>
+      <c r="I73">
+        <v>-0.28132206696305</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1621731760441988</v>
+        <v>0.1517912631324662</v>
       </c>
       <c r="C74">
-        <v>0.001565615817375187</v>
+        <v>0.02535378614861132</v>
       </c>
       <c r="D74">
-        <v>0.04179059535256492</v>
+        <v>0.007938231662167465</v>
       </c>
       <c r="E74">
-        <v>0.02195719610022536</v>
+        <v>0.04608302692328884</v>
       </c>
       <c r="F74">
-        <v>0.06096008075880095</v>
+        <v>-0.0543959027083663</v>
       </c>
       <c r="G74">
-        <v>-0.05313080623568041</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.01732222520848899</v>
+      </c>
+      <c r="H74">
+        <v>0.02484812671513251</v>
+      </c>
+      <c r="I74">
+        <v>0.01574540643378727</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2342333184360529</v>
+        <v>0.2424201078161272</v>
       </c>
       <c r="C75">
-        <v>0.01022521295832564</v>
+        <v>0.02331703502071529</v>
       </c>
       <c r="D75">
-        <v>0.06322102107539006</v>
+        <v>0.02395572741711614</v>
       </c>
       <c r="E75">
-        <v>0.1269554631962669</v>
+        <v>0.1030174676350512</v>
       </c>
       <c r="F75">
-        <v>0.04001680052583759</v>
+        <v>-0.1484739109309387</v>
       </c>
       <c r="G75">
-        <v>-0.04696300201323652</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.007301898376080995</v>
+      </c>
+      <c r="H75">
+        <v>0.0142242338095509</v>
+      </c>
+      <c r="I75">
+        <v>0.09051669815587103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.2446066095509119</v>
+        <v>0.2662435067025678</v>
       </c>
       <c r="C76">
-        <v>0.01399848469225813</v>
+        <v>0.01137769547917165</v>
       </c>
       <c r="D76">
-        <v>0.09881001965346116</v>
+        <v>-0.01185648684699613</v>
       </c>
       <c r="E76">
-        <v>0.1333452348314094</v>
+        <v>0.126696738297257</v>
       </c>
       <c r="F76">
-        <v>0.07788912061077205</v>
+        <v>-0.1822956645553558</v>
       </c>
       <c r="G76">
-        <v>-0.03643912397394748</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.05164665127812805</v>
+      </c>
+      <c r="H76">
+        <v>0.03908451723183698</v>
+      </c>
+      <c r="I76">
+        <v>0.02255378444386144</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.1390794246778279</v>
+        <v>0.1279725580019516</v>
       </c>
       <c r="C77">
-        <v>-0.03175026110899611</v>
+        <v>0.06416497865339642</v>
       </c>
       <c r="D77">
-        <v>-0.0292657018136126</v>
+        <v>-0.01039284888189986</v>
       </c>
       <c r="E77">
-        <v>-0.1383021855971086</v>
+        <v>-0.03416330789014326</v>
       </c>
       <c r="F77">
-        <v>-0.01763221419614085</v>
+        <v>0.160557442327067</v>
       </c>
       <c r="G77">
-        <v>0.05195777140114316</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.00669302711326243</v>
+      </c>
+      <c r="H77">
+        <v>-0.2264248440908331</v>
+      </c>
+      <c r="I77">
+        <v>0.2087909840855828</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.08564687070849014</v>
+        <v>0.08199908391513115</v>
       </c>
       <c r="C78">
-        <v>-0.0432090338142947</v>
+        <v>0.06986551725010692</v>
       </c>
       <c r="D78">
-        <v>-0.01623422005392965</v>
+        <v>-0.02772183875793291</v>
       </c>
       <c r="E78">
-        <v>-0.04928640934093982</v>
+        <v>0.007166701811750003</v>
       </c>
       <c r="F78">
-        <v>-0.007722473188325548</v>
+        <v>0.07307482785016922</v>
       </c>
       <c r="G78">
-        <v>-0.01432366197220952</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.01489971907646618</v>
+      </c>
+      <c r="H78">
+        <v>-0.02611700279805465</v>
+      </c>
+      <c r="I78">
+        <v>0.02550930052668251</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2991,74 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.0630517399111709</v>
+        <v>0.1492426584381295</v>
       </c>
       <c r="C80">
-        <v>-0.01874361909889381</v>
+        <v>-0.3590369093756482</v>
       </c>
       <c r="D80">
-        <v>-0.02933133155408035</v>
+        <v>-0.904245197829427</v>
       </c>
       <c r="E80">
-        <v>0.0333693414494718</v>
+        <v>-0.05895461071677108</v>
       </c>
       <c r="F80">
-        <v>0.1398626880209356</v>
+        <v>0.04916903672021496</v>
       </c>
       <c r="G80">
-        <v>0.9376772959127594</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.04263567337962426</v>
+      </c>
+      <c r="H80">
+        <v>0.05865844668803134</v>
+      </c>
+      <c r="I80">
+        <v>-0.02653519407459791</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1657543300589441</v>
+        <v>0.1786144602970314</v>
       </c>
       <c r="C81">
-        <v>0.01088164811672205</v>
+        <v>0.005790272945867944</v>
       </c>
       <c r="D81">
-        <v>0.05613688001103356</v>
+        <v>0.00608950492588444</v>
       </c>
       <c r="E81">
-        <v>0.1635243779246934</v>
+        <v>0.08394807941714524</v>
       </c>
       <c r="F81">
-        <v>0.1022692747217726</v>
+        <v>-0.1633870836943873</v>
       </c>
       <c r="G81">
-        <v>-0.03768333764091288</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.02945154877668223</v>
+      </c>
+      <c r="H81">
+        <v>0.006036682956949064</v>
+      </c>
+      <c r="I81">
+        <v>0.05691759980293693</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3078,45 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.0936122746660734</v>
+        <v>0.06946626077069576</v>
       </c>
       <c r="C83">
-        <v>-0.04779057435257964</v>
+        <v>0.05010479062566254</v>
       </c>
       <c r="D83">
-        <v>-0.07390903458895044</v>
+        <v>-0.001072476201344466</v>
       </c>
       <c r="E83">
-        <v>-0.01075707825300969</v>
+        <v>-0.03838076529743799</v>
       </c>
       <c r="F83">
-        <v>-0.0576972524025317</v>
+        <v>0.04491702857416936</v>
       </c>
       <c r="G83">
-        <v>-0.0223426574585881</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.05920499677054318</v>
+      </c>
+      <c r="H83">
+        <v>-0.02417381220090216</v>
+      </c>
+      <c r="I83">
+        <v>0.02299460678154037</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3136,335 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.2330572737826374</v>
+        <v>0.2507399265315506</v>
       </c>
       <c r="C85">
-        <v>-0.04751605238400353</v>
+        <v>0.04872684911267151</v>
       </c>
       <c r="D85">
-        <v>0.05813040544308278</v>
+        <v>-0.007831046039461139</v>
       </c>
       <c r="E85">
-        <v>0.1641701080050375</v>
+        <v>0.08832775812359986</v>
       </c>
       <c r="F85">
-        <v>0.06332052533849014</v>
+        <v>-0.1859683614346426</v>
       </c>
       <c r="G85">
-        <v>-0.02353851759966724</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.003139854920583064</v>
+      </c>
+      <c r="H85">
+        <v>-0.0219796905034038</v>
+      </c>
+      <c r="I85">
+        <v>0.04602573136977948</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.04114991961552174</v>
+        <v>0.02712381360776784</v>
       </c>
       <c r="C86">
-        <v>-0.05078303129134066</v>
+        <v>0.06196316207154468</v>
       </c>
       <c r="D86">
-        <v>0.01668460791005824</v>
+        <v>-0.02229741192904888</v>
       </c>
       <c r="E86">
-        <v>-0.06268367930322831</v>
+        <v>0.01085947422226083</v>
       </c>
       <c r="F86">
-        <v>0.002154839495548983</v>
+        <v>0.06771315895240498</v>
       </c>
       <c r="G86">
-        <v>-0.02820933336290382</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.00645736924741864</v>
+      </c>
+      <c r="H86">
+        <v>-0.06588074560610008</v>
+      </c>
+      <c r="I86">
+        <v>0.02815682125436715</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.02483848641777603</v>
+        <v>0.03557370407371021</v>
       </c>
       <c r="C87">
-        <v>0.05074824756872661</v>
+        <v>-0.01018269312884161</v>
       </c>
       <c r="D87">
-        <v>0.008013539274093224</v>
+        <v>0.008382095135995291</v>
       </c>
       <c r="E87">
-        <v>-0.09117096025995192</v>
+        <v>0.004984172258528458</v>
       </c>
       <c r="F87">
-        <v>0.02414564700057257</v>
+        <v>0.100716459289056</v>
       </c>
       <c r="G87">
-        <v>-0.02566215874220093</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.02270604833428234</v>
+      </c>
+      <c r="H87">
+        <v>-0.01550832692842575</v>
+      </c>
+      <c r="I87">
+        <v>-0.02011018697561667</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.03772730972151921</v>
+        <v>0.02917060071670221</v>
       </c>
       <c r="C88">
-        <v>-0.03313289542489401</v>
+        <v>0.01658791834795691</v>
       </c>
       <c r="D88">
-        <v>0.009079736934704603</v>
+        <v>-0.01832914853502233</v>
       </c>
       <c r="E88">
-        <v>0.01050141106350103</v>
+        <v>0.01554597400516772</v>
       </c>
       <c r="F88">
-        <v>0.01344884442941236</v>
+        <v>-0.01297022303085541</v>
       </c>
       <c r="G88">
-        <v>-0.005740375682015086</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.03446618499273785</v>
+      </c>
+      <c r="H88">
+        <v>-0.03549081290798623</v>
+      </c>
+      <c r="I88">
+        <v>-0.02512291272344675</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.004591505876288485</v>
+        <v>0.06583728823868709</v>
       </c>
       <c r="C89">
-        <v>0.4167900800723828</v>
+        <v>-0.3574135298756845</v>
       </c>
       <c r="D89">
-        <v>-0.08797387788652025</v>
+        <v>0.1687926033423509</v>
       </c>
       <c r="E89">
-        <v>-0.004626930203628275</v>
+        <v>-0.05311369166877764</v>
       </c>
       <c r="F89">
-        <v>-0.01313821894611527</v>
+        <v>0.04097477327003796</v>
       </c>
       <c r="G89">
-        <v>-0.04322729098737572</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.04184199063228577</v>
+      </c>
+      <c r="H89">
+        <v>-0.05222255621109889</v>
+      </c>
+      <c r="I89">
+        <v>0.2638473104187994</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.008602327796572509</v>
+        <v>0.04676032613031658</v>
       </c>
       <c r="C90">
-        <v>0.3100411026847609</v>
+        <v>-0.3108535393174741</v>
       </c>
       <c r="D90">
-        <v>-0.03175217480040476</v>
+        <v>0.1284712298336632</v>
       </c>
       <c r="E90">
-        <v>-0.04480629072142206</v>
+        <v>-0.03765326267495735</v>
       </c>
       <c r="F90">
-        <v>-0.01624625346109565</v>
+        <v>0.03741079835008036</v>
       </c>
       <c r="G90">
-        <v>-0.04424409554431323</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02210935086360091</v>
+      </c>
+      <c r="H90">
+        <v>-0.01057563576629116</v>
+      </c>
+      <c r="I90">
+        <v>0.2300671576385273</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.2834766825748525</v>
+        <v>0.2986875228748497</v>
       </c>
       <c r="C91">
-        <v>-0.02174670110204865</v>
+        <v>0.03829918544619417</v>
       </c>
       <c r="D91">
-        <v>0.0669254385133978</v>
+        <v>0.007600023851826916</v>
       </c>
       <c r="E91">
-        <v>0.2957336142456089</v>
+        <v>0.0865116452640961</v>
       </c>
       <c r="F91">
-        <v>0.1078617605499166</v>
+        <v>-0.2926397508420945</v>
       </c>
       <c r="G91">
-        <v>0.01592357528477703</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.02386827872771445</v>
+      </c>
+      <c r="H91">
+        <v>0.004693126393140892</v>
+      </c>
+      <c r="I91">
+        <v>0.1106404179185341</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.01557906519541117</v>
+        <v>0.1028695390913867</v>
       </c>
       <c r="C92">
-        <v>0.4262469754283899</v>
+        <v>-0.4144248624346908</v>
       </c>
       <c r="D92">
-        <v>-0.1837470813996462</v>
+        <v>0.1454647673085351</v>
       </c>
       <c r="E92">
-        <v>0.1097535530908623</v>
+        <v>-0.07287257427861644</v>
       </c>
       <c r="F92">
-        <v>0.06116047471345649</v>
+        <v>-0.1144066579701615</v>
       </c>
       <c r="G92">
-        <v>0.143546132283737</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.08607845175501039</v>
+      </c>
+      <c r="H92">
+        <v>-0.4322916515493761</v>
+      </c>
+      <c r="I92">
+        <v>-0.6947963876200076</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.007805677349472678</v>
+        <v>0.05120971866674772</v>
       </c>
       <c r="C93">
-        <v>0.3755642729682895</v>
+        <v>-0.372066165642117</v>
       </c>
       <c r="D93">
-        <v>-0.06083941299217183</v>
+        <v>0.1688463660535744</v>
       </c>
       <c r="E93">
-        <v>0.02272451623323106</v>
+        <v>-0.06885405833450083</v>
       </c>
       <c r="F93">
-        <v>0.00611680393406134</v>
+        <v>0.007652522595301255</v>
       </c>
       <c r="G93">
-        <v>0.03003198081442379</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03458397894503705</v>
+      </c>
+      <c r="H93">
+        <v>0.01979424314477915</v>
+      </c>
+      <c r="I93">
+        <v>0.1656835774810021</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.2751160430588843</v>
+        <v>0.3044222588018202</v>
       </c>
       <c r="C94">
-        <v>0.0679115567085128</v>
+        <v>-0.001679726836694996</v>
       </c>
       <c r="D94">
-        <v>0.02899218016658863</v>
+        <v>0.04501533988905107</v>
       </c>
       <c r="E94">
-        <v>0.3440155969554552</v>
+        <v>0.1295774992205197</v>
       </c>
       <c r="F94">
-        <v>0.402189738914181</v>
+        <v>-0.3422537946427279</v>
       </c>
       <c r="G94">
-        <v>-0.11694151486812</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.2083692029909963</v>
+      </c>
+      <c r="H94">
+        <v>-0.1317588668851985</v>
+      </c>
+      <c r="I94">
+        <v>0.0318776535384912</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.1989019592816617</v>
+        <v>0.1323699241922367</v>
       </c>
       <c r="C95">
-        <v>0.03126247192243997</v>
+        <v>0.06804697936131013</v>
       </c>
       <c r="D95">
-        <v>-0.009133373027981062</v>
+        <v>0.07919286480690386</v>
       </c>
       <c r="E95">
-        <v>0.3798490304443047</v>
+        <v>0.0352844276885079</v>
       </c>
       <c r="F95">
-        <v>-0.8412841257807753</v>
+        <v>-0.07437093163835075</v>
       </c>
       <c r="G95">
-        <v>0.09857335606285463</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.892763594089629</v>
+      </c>
+      <c r="H95">
+        <v>0.1882279010053361</v>
+      </c>
+      <c r="I95">
+        <v>-0.1005681175252088</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3484,16 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3513,45 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.2261493400269736</v>
+        <v>0.2099050472013318</v>
       </c>
       <c r="C98">
-        <v>0.1169314654370696</v>
+        <v>-0.03803576617606221</v>
       </c>
       <c r="D98">
-        <v>-0.05177989436872939</v>
+        <v>0.08484902250531809</v>
       </c>
       <c r="E98">
-        <v>-0.09890864761008886</v>
+        <v>-0.02729028774786972</v>
       </c>
       <c r="F98">
-        <v>-0.04889165502015701</v>
+        <v>0.1599858755595014</v>
       </c>
       <c r="G98">
-        <v>-0.04942631460512928</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.08975304939787837</v>
+      </c>
+      <c r="H98">
+        <v>0.3248165237691791</v>
+      </c>
+      <c r="I98">
+        <v>-0.1522401551637695</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3571,16 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3600,103 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.02151966692194714</v>
+        <v>0.01621372373518667</v>
       </c>
       <c r="C101">
-        <v>-0.02067556296644049</v>
+        <v>0.02844109246458573</v>
       </c>
       <c r="D101">
-        <v>0.03484802876926637</v>
+        <v>-0.01623602139086022</v>
       </c>
       <c r="E101">
-        <v>-0.02785888031650529</v>
+        <v>0.03355105341671903</v>
       </c>
       <c r="F101">
-        <v>-0.01498443786709891</v>
+        <v>0.0663675744723972</v>
       </c>
       <c r="G101">
-        <v>-0.02236772169725169</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.018317336234121</v>
+      </c>
+      <c r="H101">
+        <v>-0.1085227265225726</v>
+      </c>
+      <c r="I101">
+        <v>-0.04442041472239832</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.1207442321694694</v>
+        <v>0.1198085591364837</v>
       </c>
       <c r="C102">
-        <v>-0.01361380801695992</v>
+        <v>0.02117876498581214</v>
       </c>
       <c r="D102">
-        <v>0.03775790482527648</v>
+        <v>-0.009275050395548247</v>
       </c>
       <c r="E102">
-        <v>0.0897777158768313</v>
+        <v>0.05183360503791574</v>
       </c>
       <c r="F102">
-        <v>0.007410737489985771</v>
+        <v>-0.09722217514190327</v>
       </c>
       <c r="G102">
-        <v>0.01022767018603654</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.01759403783386022</v>
+      </c>
+      <c r="H102">
+        <v>0.01811096896424468</v>
+      </c>
+      <c r="I102">
+        <v>0.05038465310553244</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>-0.01981043950805597</v>
+        <v>0.03264134407442319</v>
       </c>
       <c r="C103">
-        <v>-0.001846324314145404</v>
+        <v>0.004706236868261215</v>
       </c>
       <c r="D103">
-        <v>0.01459291630662249</v>
+        <v>-0.01012964224375909</v>
       </c>
       <c r="E103">
-        <v>0.03167744371007998</v>
+        <v>0.02186625010405664</v>
       </c>
       <c r="F103">
-        <v>0.01476130278439234</v>
+        <v>-0.02924261688825483</v>
       </c>
       <c r="G103">
-        <v>-0.01684529331565806</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.01325748790783877</v>
+      </c>
+      <c r="H103">
+        <v>-0.01566235430342075</v>
+      </c>
+      <c r="I103">
+        <v>0.0320060290456547</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +3714,12 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
